--- a/wizard_Schedules.xlsx
+++ b/wizard_Schedules.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twyfomar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellawang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D259F3-BF4F-4E46-9A61-2C3EE5CC391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80D932D-E072-E74F-9F21-5C2EF8A75205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="620" windowWidth="23600" windowHeight="16340" activeTab="2" xr2:uid="{C54B0D3C-D899-D544-A671-BD2471B7DB21}"/>
+    <workbookView xWindow="380" yWindow="620" windowWidth="23600" windowHeight="16120" activeTab="2" xr2:uid="{C54B0D3C-D899-D544-A671-BD2471B7DB21}"/>
   </bookViews>
   <sheets>
     <sheet name="SrtudentRoster" sheetId="1" r:id="rId1"/>
     <sheet name="CourseListing" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
   <si>
     <t>Damien</t>
   </si>
@@ -247,18 +247,6 @@
     <t>Nora</t>
   </si>
   <si>
-    <t>Flyinlion,</t>
-  </si>
-  <si>
-    <t>Talonscar,</t>
-  </si>
-  <si>
-    <t>Sneakysnake,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
     <t>Badgerclaw</t>
   </si>
   <si>
@@ -563,12 +551,6 @@
   </si>
   <si>
     <t>Course3</t>
-  </si>
-  <si>
-    <t>randomly create courses</t>
-  </si>
-  <si>
-    <t>students can choose curr year or +1yr</t>
   </si>
 </sst>
 </file>
@@ -960,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7615D383-FBB5-EA41-A842-5E4802FEF9BD}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
-      <selection sqref="A1:A51"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,19 +957,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1023,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1041,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1059,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1077,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1095,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1113,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1149,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1167,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1185,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1203,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1221,7 +1203,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1239,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,10 +1239,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>100270TER</v>
@@ -1275,25 +1257,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" t="s">
         <v>71</v>
       </c>
-      <c r="N17" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>100250TFI</v>
@@ -1308,10 +1275,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>100250FFG</v>
@@ -1326,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>100260BGG</v>
@@ -1344,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>100280BGA</v>
@@ -1362,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>100280THP</v>
@@ -1380,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>100250FHI</v>
@@ -1398,10 +1365,10 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>100280BHO</v>
@@ -1416,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>100250TIQ</v>
@@ -1434,10 +1401,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>100270TJR</v>
@@ -1452,10 +1419,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>100250FKP</v>
@@ -1470,10 +1437,10 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>100250TKP</v>
@@ -1488,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>100260SME</v>
@@ -1506,10 +1473,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>100280FML</v>
@@ -1524,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>100260SMA</v>
@@ -1542,10 +1509,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>100270SMI</v>
@@ -1560,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1578,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1596,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1632,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1650,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1668,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1686,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1704,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1722,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1758,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1776,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1794,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1812,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1830,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1848,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1866,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1884,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1902,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1918,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4AACA7-D912-9D49-A8FC-71A551434EA8}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A2:A12"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1931,10 +1898,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1942,7 +1909,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1950,7 +1917,7 @@
         <v>1.2</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1958,12 +1925,12 @@
         <v>1.3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1938,7 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,7 +1946,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1987,7 +1954,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1995,7 +1962,7 @@
         <v>2.4</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2003,7 +1970,7 @@
         <v>2.5</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,7 +1978,7 @@
         <v>2.6</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2019,12 +1986,12 @@
         <v>2.7</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2032,47 +1999,47 @@
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2080,36 +2047,36 @@
         <v>3.2</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2117,7 +2084,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2125,12 +2092,12 @@
         <v>4.2</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,7 +2105,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -2146,7 +2113,7 @@
         <v>5.2</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -2154,7 +2121,7 @@
         <v>5.3</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2162,7 +2129,7 @@
         <v>5.4</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2170,7 +2137,7 @@
         <v>5.5</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2178,7 +2145,7 @@
         <v>5.6</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -2186,7 +2153,7 @@
         <v>5.7</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2194,7 +2161,7 @@
         <v>5.8</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,7 +2169,7 @@
         <v>5.9</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2212,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE7DE3-0D3E-8548-AFEF-369E20438296}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="H12" sqref="E1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,23 +2190,23 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2">
         <v>2.1</v>
@@ -2250,286 +2217,250 @@
       <c r="D2">
         <v>1.2</v>
       </c>
-      <c r="H2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H4">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>163</v>
       </c>
-      <c r="H5">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
